--- a/result/moment_lena_1_11.xlsx
+++ b/result/moment_lena_1_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W13"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,39 +470,6 @@
       <c r="L1" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="n">
-        <v>22</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -517,7 +484,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0j</t>
+          <t>(-88.55444304682459+0j)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -527,7 +494,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0j</t>
+          <t>(-19.625246776046282+0j)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -537,7 +504,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0j</t>
+          <t>(13.715922361160352+0j)</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -547,7 +514,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0j</t>
+          <t>(8.037792328510864+0j)</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -557,65 +524,10 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0j</t>
+          <t>(-6.92292140096748+0j)</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
-        <is>
-          <t>0j</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>0j</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0j</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0j</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0j</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0j</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>0j</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>0j</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>0j</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>0j</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>0j</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
         <is>
           <t>0j</t>
         </is>
@@ -639,7 +551,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0j</t>
+          <t>(-7.677366890583427-5.6525855027056275j)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -649,7 +561,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0j</t>
+          <t>(1.283618324793585+4.021320415254918j)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -659,7 +571,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0j</t>
+          <t>(1.0322565107359831-2.0123944312775j)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -669,7 +581,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0j</t>
+          <t>(2.7990323327721067-0.6056218827847802j)</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -679,69 +591,14 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0j</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>0j</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0j</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0j</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>0j</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0j</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>0j</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>0j</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>0j</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>0j</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>0j</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>(6.462714778065283-5.850328875758287j)</t>
+          <t>(-3.0691188035291104+2.5406786718595233j)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>(-88.55444304682459+0j)</t>
+          <t>0j</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -761,7 +618,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0j</t>
+          <t>(1.0943943513110284+5.045767871132224j)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -771,7 +628,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0j</t>
+          <t>(-2.842831307418189-0.8464320853527724j)</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -781,7 +638,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0j</t>
+          <t>(3.8670994433954053-2.1198673336962393j)</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -791,65 +648,10 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0j</t>
+          <t>(-2.558935402110991+1.4874956550270593j)</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
-        <is>
-          <t>0j</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>0j</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0j</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0j</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0j</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0j</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>0j</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>0j</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>0j</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>0j</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>(-0.2668670253276239+4.8555080268436654j)</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
         <is>
           <t>0j</t>
         </is>
@@ -863,7 +665,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>(-7.677366890583427-5.6525855027056275j)</t>
+          <t>0j</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -883,7 +685,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0j</t>
+          <t>(3.818962467794167+1.6616356411815947j)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -893,7 +695,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0j</t>
+          <t>(-3.4866332960898774-0.9030970040920262j)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -903,7 +705,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>0j</t>
+          <t>(0.920727184305895-0.8816394225197143j)</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -913,69 +715,14 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>0j</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>0j</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0j</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0j</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0j</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0j</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>0j</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>0j</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>0j</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>(-0.7789192127304337+0.2552069592598573j)</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>0j</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>(-7.677366890583427+5.6525855027056275j)</t>
+          <t>(-1.1837627397813115+1.2080348003143795j)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>(-19.625246776046282+0j)</t>
+          <t>0j</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -985,7 +732,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>(1.0943943513110284+5.045767871132224j)</t>
+          <t>0j</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1005,7 +752,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0j</t>
+          <t>(9.945487370007331-0.18361026204793837j)</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -1015,7 +762,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0j</t>
+          <t>(7.971318022724419+0.6574648521293602j)</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1025,65 +772,10 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>0j</t>
+          <t>(-5.8897673989266375-0.3258489509026812j)</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
-        <is>
-          <t>0j</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>0j</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0j</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0j</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0j</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0j</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>0j</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>0j</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>(-15.772296744760165+0.2029611170766666j)</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>0j</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>(1.0943943513110284-5.045767871132224j)</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
         <is>
           <t>0j</t>
         </is>
@@ -1097,7 +789,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>(1.283618324793585+4.021320415254918j)</t>
+          <t>0j</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1107,7 +799,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>(3.818962467794167+1.6616356411815947j)</t>
+          <t>0j</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1127,7 +819,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>0j</t>
+          <t>(-2.3236216960985554+1.9490165465824778j)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1137,7 +829,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>0j</t>
+          <t>(1.0616531703892464-1.6053536915865552j)</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1147,69 +839,14 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>0j</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>0j</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0j</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0j</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>0j</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>0j</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>0j</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>(1.9466434543053623+1.265997311370469j)</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>0j</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>(3.818962467794167-1.6616356411815947j)</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>0j</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>(1.283618324793585-4.021320415254918j)</t>
+          <t>(-0.7945265439807029+0.5678373122274089j)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>(13.715922361160352+0j)</t>
+          <t>0j</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1219,7 +856,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>(-2.842831307418189-0.8464320853527724j)</t>
+          <t>0j</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1229,7 +866,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>(9.945487370007331-0.18361026204793837j)</t>
+          <t>0j</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1249,7 +886,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0j</t>
+          <t>(0.2801181383395359+0.5036774728716636j)</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1259,65 +896,10 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>0j</t>
+          <t>(-0.8171100769126858-1.5237820295372775j)</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
-        <is>
-          <t>0j</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>0j</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0j</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0j</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>0j</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0j</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>(0.1574033719094913-0.25560349839763663j)</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>0j</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>(9.945487370007331+0.18361026204793837j)</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>0j</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>(-2.842831307418189+0.8464320853527724j)</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
         <is>
           <t>0j</t>
         </is>
@@ -1331,7 +913,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>(1.0322565107359831-2.0123944312775j)</t>
+          <t>0j</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1341,7 +923,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>(-3.4866332960898774-0.9030970040920262j)</t>
+          <t>0j</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1351,7 +933,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>(-2.3236216960985554+1.9490165465824778j)</t>
+          <t>0j</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1371,7 +953,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>0j</t>
+          <t>(0.1984347113255898-1.226677144133534j)</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1381,69 +963,14 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>0j</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>0j</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0j</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>0j</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0j</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>(-0.6486991578706831-0.07488737902538702j)</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>0j</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>(-2.3236216960985554-1.9490165465824778j)</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>0j</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>(-3.4866332960898774+0.9030970040920262j)</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>0j</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>(1.0322565107359831+2.0123944312775j)</t>
+          <t>(0.5751713958685696+1.330840614898624j)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>(8.037792328510864+0j)</t>
+          <t>0j</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1453,7 +980,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>(3.8670994433954053-2.1198673336962393j)</t>
+          <t>0j</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1463,7 +990,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>(7.971318022724419+0.6574648521293602j)</t>
+          <t>0j</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1473,7 +1000,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>(0.2801181383395359+0.5036774728716636j)</t>
+          <t>0j</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1493,65 +1020,10 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>0j</t>
+          <t>(-4.026883784802345-0.6860604134241268j)</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
-        <is>
-          <t>0j</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>0j</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0j</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>0j</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>(5.341122251023257-0.38850838705054536j)</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>0j</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>(0.2801181383395359-0.5036774728716636j)</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>0j</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>(7.971318022724419-0.6574648521293602j)</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>0j</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>(3.8670994433954053+2.1198673336962393j)</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
         <is>
           <t>0j</t>
         </is>
@@ -1565,7 +1037,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>(2.7990323327721067-0.6056218827847802j)</t>
+          <t>0j</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1575,7 +1047,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>(0.920727184305895-0.8816394225197143j)</t>
+          <t>0j</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1585,7 +1057,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>(1.0616531703892464-1.6053536915865552j)</t>
+          <t>0j</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1595,7 +1067,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(0.1984347113255898-1.226677144133534j)</t>
+          <t>0j</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1615,69 +1087,14 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>0j</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>0j</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>0j</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>(-1.1570386935545782-0.37792477486580695j)</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0j</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>(0.1984347113255898+1.226677144133534j)</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>0j</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>(1.0616531703892464+1.6053536915865552j)</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>0j</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>(0.920727184305895+0.8816394225197143j)</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>0j</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>(2.7990323327721067+0.6056218827847802j)</t>
+          <t>(2.257640004386658-0.4662777673545654j)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>(-6.92292140096748+0j)</t>
+          <t>0j</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1687,7 +1104,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>(-2.558935402110991+1.4874956550270593j)</t>
+          <t>0j</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1697,7 +1114,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>(-5.8897673989266375-0.3258489509026812j)</t>
+          <t>0j</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1707,7 +1124,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>(-0.8171100769126858-1.5237820295372775j)</t>
+          <t>0j</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1717,7 +1134,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>(-4.026883784802345-0.6860604134241268j)</t>
+          <t>0j</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1731,61 +1148,6 @@
         </is>
       </c>
       <c r="L12" t="inlineStr">
-        <is>
-          <t>0j</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>0j</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>(-0.28742722137002197+0.24493579365449336j)</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>0j</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>(-4.026883784802345+0.6860604134241268j)</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>0j</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>(-0.8171100769126858+1.5237820295372775j)</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>0j</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>(-5.8897673989266375+0.3258489509026812j)</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>0j</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>(-2.558935402110991-1.4874956550270593j)</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
         <is>
           <t>0j</t>
         </is>
@@ -1799,7 +1161,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>(-3.0691188035291104+2.5406786718595233j)</t>
+          <t>0j</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1809,7 +1171,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>(-1.1837627397813115+1.2080348003143795j)</t>
+          <t>0j</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1819,7 +1181,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>(-0.7945265439807029+0.5678373122274089j)</t>
+          <t>0j</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1829,7 +1191,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(0.5751713958685696+1.330840614898624j)</t>
+          <t>0j</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1839,7 +1201,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>(2.257640004386658-0.4662777673545654j)</t>
+          <t>0j</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1852,57 +1214,684 @@
           <t>(0.3827752973038149+0.05193852827506129j)</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>0j</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0j</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0j</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0j</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0j</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0j</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0j</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0j</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>0j</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>0j</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>0j</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
         <is>
           <t>(0.3827752973038149-0.05193852827506129j)</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>0j</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>0j</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0j</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0j</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0j</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0j</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0j</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0j</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0j</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>0j</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>0j</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>(-0.28742722137002197+0.24493579365449336j)</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>0j</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>0j</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0j</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0j</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0j</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0j</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0j</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0j</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>0j</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>0j</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>(-1.1570386935545782-0.37792477486580695j)</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>0j</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
         <is>
           <t>(2.257640004386658+0.4662777673545654j)</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0j</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>0j</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0j</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0j</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0j</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0j</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0j</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0j</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>0j</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>(5.341122251023257-0.38850838705054536j)</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>0j</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>(-4.026883784802345+0.6860604134241268j)</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>0j</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>0j</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0j</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0j</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0j</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0j</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0j</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0j</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>(-0.6486991578706831-0.07488737902538702j)</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>0j</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>(0.1984347113255898+1.226677144133534j)</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>0j</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
         <is>
           <t>(0.5751713958685696-1.330840614898624j)</t>
         </is>
       </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>0j</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>0j</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0j</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0j</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0j</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>0j</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0j</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>(0.1574033719094913-0.25560349839763663j)</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>0j</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>(0.2801181383395359-0.5036774728716636j)</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>0j</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>(-0.8171100769126858+1.5237820295372775j)</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>0j</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>0j</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>0j</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0j</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0j</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0j</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>(1.9466434543053623+1.265997311370469j)</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0j</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>(-2.3236216960985554-1.9490165465824778j)</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>0j</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>(1.0616531703892464+1.6053536915865552j)</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>0j</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
         <is>
           <t>(-0.7945265439807029-0.5678373122274089j)</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>0j</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>0j</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>0j</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0j</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0j</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>(-15.772296744760165+0.2029611170766666j)</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0j</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>(9.945487370007331+0.18361026204793837j)</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>0j</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>(7.971318022724419-0.6574648521293602j)</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>0j</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>(-5.8897673989266375+0.3258489509026812j)</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>0j</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>0j</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>0j</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>0j</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>(-0.7789192127304337+0.2552069592598573j)</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>0j</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>(3.818962467794167-1.6616356411815947j)</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0j</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>(-3.4866332960898774+0.9030970040920262j)</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>0j</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>(0.920727184305895+0.8816394225197143j)</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>0j</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
         <is>
           <t>(-1.1837627397813115-1.2080348003143795j)</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>0j</t>
-        </is>
-      </c>
-      <c r="W13" t="inlineStr">
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>0j</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>0j</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>(-0.2668670253276239+4.8555080268436654j)</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0j</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>(1.0943943513110284-5.045767871132224j)</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0j</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>(-2.842831307418189+0.8464320853527724j)</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>0j</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>(3.8670994433954053+2.1198673336962393j)</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>0j</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>(-2.558935402110991-1.4874956550270593j)</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>0j</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>0j</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>(6.462714778065283-5.850328875758287j)</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>0j</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>(-7.677366890583427+5.6525855027056275j)</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>0j</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>(1.283618324793585-4.021320415254918j)</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0j</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>(1.0322565107359831+2.0123944312775j)</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>0j</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>(2.7990323327721067+0.6056218827847802j)</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>0j</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
         <is>
           <t>(-3.0691188035291104-2.5406786718595233j)</t>
         </is>
